--- a/Code/Results/Cases/Case_7_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.883515848105333</v>
+        <v>4.88351584810539</v>
       </c>
       <c r="C2">
-        <v>1.41661346704484</v>
+        <v>1.416613467045067</v>
       </c>
       <c r="D2">
-        <v>0.01259944040580407</v>
+        <v>0.01259944040579697</v>
       </c>
       <c r="E2">
-        <v>0.1003978025512637</v>
+        <v>0.1003978025512531</v>
       </c>
       <c r="F2">
-        <v>3.331811036728993</v>
+        <v>3.331811036728965</v>
       </c>
       <c r="G2">
-        <v>0.0007920270232413262</v>
+        <v>0.0007920270233038202</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2436885347770641</v>
+        <v>0.2436885347769788</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.02924985487401</v>
+        <v>1.029249854874003</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>4.224688718204391</v>
       </c>
       <c r="C3">
-        <v>1.220539921045429</v>
+        <v>1.220539921045258</v>
       </c>
       <c r="D3">
-        <v>0.01124140875350221</v>
+        <v>0.01124140875353064</v>
       </c>
       <c r="E3">
-        <v>0.08919486310530544</v>
+        <v>0.08919486310534097</v>
       </c>
       <c r="F3">
-        <v>3.00849658251056</v>
+        <v>3.008496582510588</v>
       </c>
       <c r="G3">
-        <v>0.0008032605794767223</v>
+        <v>0.0008032605795383142</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2159743427175158</v>
+        <v>0.2159743427175584</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.069686252995588</v>
+        <v>1.069686252995581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.829721449696876</v>
+        <v>3.829721449696933</v>
       </c>
       <c r="C4">
-        <v>1.103000526649282</v>
+        <v>1.103000526649055</v>
       </c>
       <c r="D4">
-        <v>0.01041332716012278</v>
+        <v>0.01041332716011922</v>
       </c>
       <c r="E4">
-        <v>0.08251594267097673</v>
+        <v>0.08251594267104068</v>
       </c>
       <c r="F4">
-        <v>2.81899675982072</v>
+        <v>2.818996759820692</v>
       </c>
       <c r="G4">
-        <v>0.0008103037030987384</v>
+        <v>0.0008103037031556386</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1995546459747146</v>
+        <v>0.1995546459747715</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.670832499928906</v>
+        <v>3.67083249992902</v>
       </c>
       <c r="C5">
-        <v>1.055713267543126</v>
+        <v>1.055713267542785</v>
       </c>
       <c r="D5">
-        <v>0.01007711116711008</v>
+        <v>0.0100771111671385</v>
       </c>
       <c r="E5">
-        <v>0.07983846998466149</v>
+        <v>0.07983846998470057</v>
       </c>
       <c r="F5">
-        <v>2.743782270204321</v>
+        <v>2.743782270204349</v>
       </c>
       <c r="G5">
-        <v>0.0008132137136536317</v>
+        <v>0.0008132137136575216</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1929951878679717</v>
+        <v>0.1929951878680143</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.108226115068042</v>
+        <v>1.108226115068049</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.644564496339001</v>
+        <v>3.644564496339228</v>
       </c>
       <c r="C6">
-        <v>1.047895280870591</v>
+        <v>1.047895280870478</v>
       </c>
       <c r="D6">
-        <v>0.01002135171393448</v>
+        <v>0.01002135171404461</v>
       </c>
       <c r="E6">
-        <v>0.07939638687182082</v>
+        <v>0.07939638687181372</v>
       </c>
       <c r="F6">
-        <v>2.731407199499259</v>
+        <v>2.73140719949933</v>
       </c>
       <c r="G6">
-        <v>0.0008136994162714073</v>
+        <v>0.0008136994162690494</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1919134485059146</v>
+        <v>0.1919134485060141</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.110169281442403</v>
+        <v>1.110169281442388</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.827570685324361</v>
+        <v>3.827570685324304</v>
       </c>
       <c r="C7">
-        <v>1.102360451701088</v>
+        <v>1.102360451700974</v>
       </c>
       <c r="D7">
-        <v>0.01040878809372359</v>
+        <v>0.01040878809383727</v>
       </c>
       <c r="E7">
-        <v>0.08247966164968901</v>
+        <v>0.08247966164971743</v>
       </c>
       <c r="F7">
-        <v>2.817974582023282</v>
+        <v>2.817974582023254</v>
       </c>
       <c r="G7">
-        <v>0.0008103427829800604</v>
+        <v>0.0008103427829207367</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1994656724614075</v>
+        <v>0.1994656724613506</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.096857233595991</v>
+        <v>1.096857233595983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.65415279789903</v>
+        <v>4.654152797899087</v>
       </c>
       <c r="C8">
-        <v>1.348348162547154</v>
+        <v>1.348348162547381</v>
       </c>
       <c r="D8">
-        <v>0.01212985630566266</v>
+        <v>0.01212985630553476</v>
       </c>
       <c r="E8">
         <v>0.09648976273910748</v>
       </c>
       <c r="F8">
-        <v>3.218295747195896</v>
+        <v>3.218295747195867</v>
       </c>
       <c r="G8">
-        <v>0.0007958721846312621</v>
+        <v>0.000795872184507431</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.233997057609912</v>
+        <v>0.2339970576100541</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>6.368475391842594</v>
       </c>
       <c r="C9">
-        <v>1.858846152759725</v>
+        <v>1.85884615275944</v>
       </c>
       <c r="D9">
-        <v>0.01556249725988579</v>
+        <v>0.015562497260035</v>
       </c>
       <c r="E9">
         <v>0.1258582034049915</v>
@@ -765,7 +765,7 @@
         <v>4.088276325599367</v>
       </c>
       <c r="G9">
-        <v>0.0007684838765426209</v>
+        <v>0.000768483876473565</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3074032003415823</v>
+        <v>0.3074032003417244</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9558876799316778</v>
+        <v>0.9558876799317346</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.713707116761157</v>
+        <v>7.7137071167611</v>
       </c>
       <c r="C10">
-        <v>2.260088563490115</v>
+        <v>2.260088563490569</v>
       </c>
       <c r="D10">
-        <v>0.01814067121785712</v>
+        <v>0.01814067121816265</v>
       </c>
       <c r="E10">
-        <v>0.1490974317210068</v>
+        <v>0.1490974317210423</v>
       </c>
       <c r="F10">
-        <v>4.801189441458405</v>
+        <v>4.801189441458348</v>
       </c>
       <c r="G10">
-        <v>0.0007486918172982176</v>
+        <v>0.0007486918172782196</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9071333285569949</v>
+        <v>0.9071333285570091</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.352244115975964</v>
+        <v>8.352244115976191</v>
       </c>
       <c r="C11">
         <v>2.450817890224187</v>
       </c>
       <c r="D11">
-        <v>0.01933200351608733</v>
+        <v>0.01933200351602693</v>
       </c>
       <c r="E11">
-        <v>0.1601703751136228</v>
+        <v>0.160170375113637</v>
       </c>
       <c r="F11">
         <v>5.147591686302576</v>
       </c>
       <c r="G11">
-        <v>0.0007396848290900364</v>
+        <v>0.0007396848291456623</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3947164528118492</v>
+        <v>0.3947164528117639</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>8.598680465098141</v>
       </c>
       <c r="C12">
-        <v>2.52448077106493</v>
+        <v>2.524480771065157</v>
       </c>
       <c r="D12">
-        <v>0.01978646232883463</v>
+        <v>0.01978646232921477</v>
       </c>
       <c r="E12">
-        <v>0.1644498580584042</v>
+        <v>0.1644498580584539</v>
       </c>
       <c r="F12">
-        <v>5.282567681936456</v>
+        <v>5.282567681936484</v>
       </c>
       <c r="G12">
-        <v>0.0007362659673528782</v>
+        <v>0.0007362659674078899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4057157937248093</v>
+        <v>0.4057157937250224</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8829927397769666</v>
+        <v>0.8829927397769524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.545385136951268</v>
+        <v>8.545385136951211</v>
       </c>
       <c r="C13">
-        <v>2.508547537642471</v>
+        <v>2.508547537642585</v>
       </c>
       <c r="D13">
-        <v>0.01968842622198963</v>
+        <v>0.01968842622228451</v>
       </c>
       <c r="E13">
-        <v>0.1635240945079346</v>
+        <v>0.1635240945079062</v>
       </c>
       <c r="F13">
         <v>5.253317890966343</v>
       </c>
       <c r="G13">
-        <v>0.0007370027780338926</v>
+        <v>0.0007370027780863168</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.403334345206261</v>
+        <v>0.4033343452064457</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8842799957344027</v>
+        <v>0.8842799957344312</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.372420444889713</v>
+        <v>8.372420444889428</v>
       </c>
       <c r="C14">
-        <v>2.456847701406332</v>
+        <v>2.456847701406843</v>
       </c>
       <c r="D14">
-        <v>0.01936932106318068</v>
+        <v>0.01936932106319489</v>
       </c>
       <c r="E14">
-        <v>0.1605206273617199</v>
+        <v>0.1605206273618265</v>
       </c>
       <c r="F14">
         <v>5.158616058943522</v>
       </c>
       <c r="G14">
-        <v>0.0007394037686701587</v>
+        <v>0.0007394037686718455</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3956157984770101</v>
+        <v>0.395615798477067</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8886020880831467</v>
+        <v>0.8886020880832035</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.267105156619209</v>
+        <v>8.267105156619152</v>
       </c>
       <c r="C15">
-        <v>2.425375838598256</v>
+        <v>2.425375838597972</v>
       </c>
       <c r="D15">
-        <v>0.01917431563624561</v>
+        <v>0.01917431563663285</v>
       </c>
       <c r="E15">
-        <v>0.1586926402001225</v>
+        <v>0.1586926402000941</v>
       </c>
       <c r="F15">
-        <v>5.101124021258016</v>
+        <v>5.101124021258045</v>
       </c>
       <c r="G15">
-        <v>0.000740873137764312</v>
+        <v>0.000740873137876421</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3909238134685324</v>
+        <v>0.390923813468433</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8913428438488893</v>
+        <v>0.8913428438489035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.672578270333986</v>
+        <v>7.672578270334043</v>
       </c>
       <c r="C16">
-        <v>2.247809972898779</v>
+        <v>2.247809972898551</v>
       </c>
       <c r="D16">
-        <v>0.01806324077491794</v>
+        <v>0.01806324077521282</v>
       </c>
       <c r="E16">
-        <v>0.1483850396856745</v>
+        <v>0.1483850396856816</v>
       </c>
       <c r="F16">
-        <v>4.779046514813302</v>
+        <v>4.779046514813331</v>
       </c>
       <c r="G16">
-        <v>0.0007492797563138655</v>
+        <v>0.0007492797563110319</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.364548577631183</v>
+        <v>0.3645485776312398</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9084019465732922</v>
+        <v>0.9084019465733491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.315196670366731</v>
+        <v>7.315196670366845</v>
       </c>
       <c r="C17">
-        <v>2.141148642252119</v>
+        <v>2.141148642252233</v>
       </c>
       <c r="D17">
-        <v>0.01738680044181962</v>
+        <v>0.01738680044188001</v>
       </c>
       <c r="E17">
-        <v>0.1421994290741608</v>
+        <v>0.1421994290741679</v>
       </c>
       <c r="F17">
         <v>4.587529475446928</v>
       </c>
       <c r="G17">
-        <v>0.000754431067003883</v>
+        <v>0.0007544310669294923</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3487883133612542</v>
+        <v>0.3487883133612826</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.91999551517155</v>
+        <v>0.9199955151715926</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.11208579144926</v>
+        <v>7.112085791449374</v>
       </c>
       <c r="C18">
-        <v>2.080553837337447</v>
+        <v>2.08055383733722</v>
       </c>
       <c r="D18">
-        <v>0.0169994242043181</v>
+        <v>0.01699942420409428</v>
       </c>
       <c r="E18">
         <v>0.1386878175586013</v>
@@ -1188,7 +1188,7 @@
         <v>4.479410078608424</v>
       </c>
       <c r="G18">
-        <v>0.0007573941664240635</v>
+        <v>0.0007573941664244029</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.339864013340943</v>
+        <v>0.3398640133410566</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.043713590310745</v>
+        <v>7.043713590310915</v>
       </c>
       <c r="C19">
-        <v>2.060159882726225</v>
+        <v>2.060159882726452</v>
       </c>
       <c r="D19">
-        <v>0.01686853838013391</v>
+        <v>0.01686853838004509</v>
       </c>
       <c r="E19">
-        <v>0.1375063852004885</v>
+        <v>0.1375063852005489</v>
       </c>
       <c r="F19">
         <v>4.443135269254867</v>
       </c>
       <c r="G19">
-        <v>0.0007583976651927364</v>
+        <v>0.0007583976651176454</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3368653225115708</v>
+        <v>0.336865322511656</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9295013521559667</v>
+        <v>0.9295013521559383</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.352982033327919</v>
+        <v>7.352982033328033</v>
       </c>
       <c r="C20">
-        <v>2.152423174327225</v>
+        <v>2.152423174327396</v>
       </c>
       <c r="D20">
-        <v>0.01745862896638428</v>
+        <v>0.01745862896616046</v>
       </c>
       <c r="E20">
-        <v>0.1428530223308506</v>
+        <v>0.1428530223308186</v>
       </c>
       <c r="F20">
-        <v>4.607701910729674</v>
+        <v>4.607701910729759</v>
       </c>
       <c r="G20">
-        <v>0.0007538827309529562</v>
+        <v>0.0007538827308952153</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3504511745195487</v>
+        <v>0.3504511745193639</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9187208326866738</v>
+        <v>0.9187208326866596</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.423091275879131</v>
+        <v>8.423091275879415</v>
       </c>
       <c r="C21">
         <v>2.471991861094466</v>
       </c>
       <c r="D21">
-        <v>0.01946295360122718</v>
+        <v>0.01946295360127692</v>
       </c>
       <c r="E21">
         <v>0.1614003458330657</v>
       </c>
       <c r="F21">
-        <v>5.186323549365909</v>
+        <v>5.186323549365966</v>
       </c>
       <c r="G21">
-        <v>0.000738698827509147</v>
+        <v>0.0007386988275071005</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.397875360153165</v>
+        <v>0.3978753601530514</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>9.149992074007855</v>
       </c>
       <c r="C22">
-        <v>2.689388614500558</v>
+        <v>2.689388614500388</v>
       </c>
       <c r="D22">
-        <v>0.0207927192526256</v>
+        <v>0.02079271925263626</v>
       </c>
       <c r="E22">
-        <v>0.174034465451065</v>
+        <v>0.1740344654510295</v>
       </c>
       <c r="F22">
-        <v>5.587024567989829</v>
+        <v>5.587024567989801</v>
       </c>
       <c r="G22">
-        <v>0.0007287233340783709</v>
+        <v>0.0007287233342676191</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4304359576085233</v>
+        <v>0.4304359576085517</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8708832804545352</v>
+        <v>0.8708832804545921</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>8.759201244565702</v>
       </c>
       <c r="C23">
-        <v>2.572479070958195</v>
+        <v>2.572479070958252</v>
       </c>
       <c r="D23">
-        <v>0.0200809213770512</v>
+        <v>0.02008092137684159</v>
       </c>
       <c r="E23">
         <v>0.1672390321175072</v>
       </c>
       <c r="F23">
-        <v>5.370861235784218</v>
+        <v>5.37086123578419</v>
       </c>
       <c r="G23">
-        <v>0.0007340551091314929</v>
+        <v>0.0007340551091337133</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.412897373024208</v>
+        <v>0.4128973730240943</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8792410616709248</v>
+        <v>0.879241061670939</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.335892002239007</v>
+        <v>7.335892002238836</v>
       </c>
       <c r="C24">
-        <v>2.147323715136963</v>
+        <v>2.147323715136906</v>
       </c>
       <c r="D24">
-        <v>0.01742615060880937</v>
+        <v>0.01742615060874186</v>
       </c>
       <c r="E24">
-        <v>0.1425573950067296</v>
+        <v>0.142557395006758</v>
       </c>
       <c r="F24">
-        <v>4.59857581130774</v>
+        <v>4.598575811307683</v>
       </c>
       <c r="G24">
-        <v>0.0007541306282737724</v>
+        <v>0.0007541306282390487</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3496989730956557</v>
+        <v>0.3496989730955704</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9192959131900835</v>
+        <v>0.9192959131900409</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.89200393781158</v>
+        <v>5.892003937811751</v>
       </c>
       <c r="C25">
-        <v>1.71688598463254</v>
+        <v>1.716885984632768</v>
       </c>
       <c r="D25">
-        <v>0.01462578977581686</v>
+        <v>0.0146257897758062</v>
       </c>
       <c r="E25">
-        <v>0.1176627808763939</v>
+        <v>0.1176627808764223</v>
       </c>
       <c r="F25">
-        <v>3.841769067480925</v>
+        <v>3.841769067480953</v>
       </c>
       <c r="G25">
-        <v>0.0007758129759651794</v>
+        <v>0.0007758129760184443</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2867890707976102</v>
+        <v>0.2867890707976528</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.88351584810539</v>
+        <v>2.894762035004021</v>
       </c>
       <c r="C2">
-        <v>1.416613467045067</v>
+        <v>0.9412458459671029</v>
       </c>
       <c r="D2">
-        <v>0.01259944040579697</v>
+        <v>0.1572758643780929</v>
       </c>
       <c r="E2">
-        <v>0.1003978025512531</v>
+        <v>0.1904444052167733</v>
       </c>
       <c r="F2">
-        <v>3.331811036728965</v>
+        <v>1.31667404419639</v>
       </c>
       <c r="G2">
-        <v>0.0007920270233038202</v>
+        <v>0.9460894359006318</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.002109841026467274</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2436885347769788</v>
+        <v>0.5927871257293447</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.391940943549173</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2611416056934743</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.029249854874003</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.6507508891157023</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.224688718204391</v>
+        <v>2.515813969688622</v>
       </c>
       <c r="C3">
-        <v>1.220539921045258</v>
+        <v>0.8176750382717728</v>
       </c>
       <c r="D3">
-        <v>0.01124140875353064</v>
+        <v>0.1402492638925708</v>
       </c>
       <c r="E3">
-        <v>0.08919486310534097</v>
+        <v>0.1691744011633993</v>
       </c>
       <c r="F3">
-        <v>3.008496582510588</v>
+        <v>1.205017268497301</v>
       </c>
       <c r="G3">
-        <v>0.0008032605795383142</v>
+        <v>0.8584606956909937</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0006764606923987948</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2159743427175584</v>
+        <v>0.5573173319150015</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3760411822142515</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2314929901695564</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.069686252995581</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.6767220817802198</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.829721449696933</v>
+        <v>2.283734442641901</v>
       </c>
       <c r="C4">
-        <v>1.103000526649055</v>
+        <v>0.7420145146195978</v>
       </c>
       <c r="D4">
-        <v>0.01041332716011922</v>
+        <v>0.1298093792499202</v>
       </c>
       <c r="E4">
-        <v>0.08251594267104068</v>
+        <v>0.1561450071941657</v>
       </c>
       <c r="F4">
-        <v>2.818996759820692</v>
+        <v>1.13792588172069</v>
       </c>
       <c r="G4">
-        <v>0.0008103037031556386</v>
+        <v>0.8060533162353778</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001790077066705642</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1995546459747715</v>
+        <v>0.536342375637247</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.367047523847372</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2133418198498305</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.096703867554581</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.6934692006976881</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.67083249992902</v>
+        <v>2.18927255865799</v>
       </c>
       <c r="C5">
-        <v>1.055713267542785</v>
+        <v>0.7112221372551915</v>
       </c>
       <c r="D5">
-        <v>0.0100771111671385</v>
+        <v>0.1255566200158569</v>
       </c>
       <c r="E5">
-        <v>0.07983846998470057</v>
+        <v>0.1508396814564215</v>
       </c>
       <c r="F5">
-        <v>2.743782270204349</v>
+        <v>1.110923458987415</v>
       </c>
       <c r="G5">
-        <v>0.0008132137136575216</v>
+        <v>0.785018304747453</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.610950085716993E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1929951878680143</v>
+        <v>0.5279831542815714</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3635633790515413</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2059531448931367</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.108226115068049</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7004882883498915</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.644564496339228</v>
+        <v>2.173592972757206</v>
       </c>
       <c r="C6">
-        <v>1.047895280870478</v>
+        <v>0.7061111171559844</v>
       </c>
       <c r="D6">
-        <v>0.01002135171404461</v>
+        <v>0.1248504896618954</v>
       </c>
       <c r="E6">
-        <v>0.07939638687181372</v>
+        <v>0.1499588972041366</v>
       </c>
       <c r="F6">
-        <v>2.73140719949933</v>
+        <v>1.106459262725636</v>
       </c>
       <c r="G6">
-        <v>0.0008136994162690494</v>
+        <v>0.7815440275091703</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.260630677317302E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1919134485060141</v>
+        <v>0.5266060910716135</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3629954091421794</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2047265988291116</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.110169281442388</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.701665357631871</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.827570685324304</v>
+        <v>2.282460089362132</v>
       </c>
       <c r="C7">
-        <v>1.102360451700974</v>
+        <v>0.7415990935564309</v>
       </c>
       <c r="D7">
-        <v>0.01040878809383727</v>
+        <v>0.1297520213112051</v>
       </c>
       <c r="E7">
-        <v>0.08247966164971743</v>
+        <v>0.1560734448459939</v>
       </c>
       <c r="F7">
-        <v>2.817974582023254</v>
+        <v>1.13756038918693</v>
       </c>
       <c r="G7">
-        <v>0.0008103427829207367</v>
+        <v>0.8057683675953342</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001771296874559791</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1994656724613506</v>
+        <v>0.5362288958046548</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3669998192546373</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2132421477162438</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.096857233595983</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.6935630837802833</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.654152797899087</v>
+        <v>2.763953608540248</v>
       </c>
       <c r="C8">
-        <v>1.348348162547381</v>
+        <v>0.8985860972805995</v>
       </c>
       <c r="D8">
-        <v>0.01212985630553476</v>
+        <v>0.1514007898004905</v>
       </c>
       <c r="E8">
-        <v>0.09648976273910748</v>
+        <v>0.1831020715452354</v>
       </c>
       <c r="F8">
-        <v>3.218295747195867</v>
+        <v>1.277851325247056</v>
       </c>
       <c r="G8">
-        <v>0.000795872184507431</v>
+        <v>0.9155665820791654</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001532241306845261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2339970576100541</v>
+        <v>0.580381768962738</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3862914000443851</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.250904436909039</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.042713525553836</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.6595353288683228</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.368475391842594</v>
+        <v>3.714748258591271</v>
       </c>
       <c r="C9">
-        <v>1.85884615275944</v>
+        <v>1.208791350851754</v>
       </c>
       <c r="D9">
-        <v>0.015562497260035</v>
+        <v>0.1940707965683259</v>
       </c>
       <c r="E9">
-        <v>0.1258582034049915</v>
+        <v>0.2365119930324582</v>
       </c>
       <c r="F9">
-        <v>4.088276325599367</v>
+        <v>1.566086907502864</v>
       </c>
       <c r="G9">
-        <v>0.000768483876473565</v>
+        <v>1.143406564754542</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.007530690363937664</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3074032003417244</v>
+        <v>0.6740095377969055</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4308219000477536</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3254383589698193</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9558876799317346</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.5994878346803532</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.7137071167611</v>
+        <v>4.400251193758891</v>
       </c>
       <c r="C10">
-        <v>2.260088563490569</v>
+        <v>1.427633240738771</v>
       </c>
       <c r="D10">
-        <v>0.01814067121816265</v>
+        <v>0.2204820411002828</v>
       </c>
       <c r="E10">
-        <v>0.1490974317210423</v>
+        <v>0.2663310802262444</v>
       </c>
       <c r="F10">
-        <v>4.801189441458348</v>
+        <v>1.761860138207453</v>
       </c>
       <c r="G10">
-        <v>0.0007486918172782196</v>
+        <v>1.30252688441297</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01419205291085701</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3663669526267483</v>
+        <v>0.7392116167749236</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4618817281349195</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3647948003372647</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9071333285570091</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.5637400793884879</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.352244115976191</v>
+        <v>4.539218755057334</v>
       </c>
       <c r="C11">
-        <v>2.450817890224187</v>
+        <v>1.42758313527986</v>
       </c>
       <c r="D11">
-        <v>0.01933200351602693</v>
+        <v>0.1892454743116758</v>
       </c>
       <c r="E11">
-        <v>0.160170375113637</v>
+        <v>0.2013170670799767</v>
       </c>
       <c r="F11">
-        <v>5.147591686302576</v>
+        <v>1.629088812394144</v>
       </c>
       <c r="G11">
-        <v>0.0007396848291456623</v>
+        <v>1.222261733911807</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03293923641453489</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3947164528117639</v>
+        <v>0.6937998261420546</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4207014015582047</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2574170275844665</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8891207347454753</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5863057299588093</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.598680465098141</v>
+        <v>4.508412507538708</v>
       </c>
       <c r="C12">
-        <v>2.524480771065157</v>
+        <v>1.380807792546875</v>
       </c>
       <c r="D12">
-        <v>0.01978646232921477</v>
+        <v>0.1600010710802451</v>
       </c>
       <c r="E12">
-        <v>0.1644498580584539</v>
+        <v>0.1501532843677147</v>
       </c>
       <c r="F12">
-        <v>5.282567681936484</v>
+        <v>1.479280411114047</v>
       </c>
       <c r="G12">
-        <v>0.0007362659674078899</v>
+        <v>1.122407780956138</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07079766209544402</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4057157937250224</v>
+        <v>0.6421631500906528</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3803315855143765</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1790940419313714</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8829927397769524</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.618517353607615</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.545385136951211</v>
+        <v>4.345503374806526</v>
       </c>
       <c r="C13">
-        <v>2.508547537642585</v>
+        <v>1.295859592582815</v>
       </c>
       <c r="D13">
-        <v>0.01968842622228451</v>
+        <v>0.1307913269942489</v>
       </c>
       <c r="E13">
-        <v>0.1635240945079062</v>
+        <v>0.106979882708707</v>
       </c>
       <c r="F13">
-        <v>5.253317890966343</v>
+        <v>1.308427906679668</v>
       </c>
       <c r="G13">
-        <v>0.0007370027780863168</v>
+        <v>1.002018774609397</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1249115953469584</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4033343452064457</v>
+        <v>0.5828359158710157</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3382069220437671</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1189903144887978</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8842799957344312</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.6587524536804068</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.372420444889428</v>
+        <v>4.17267382675675</v>
       </c>
       <c r="C14">
-        <v>2.456847701406843</v>
+        <v>1.21980447068313</v>
       </c>
       <c r="D14">
-        <v>0.01936932106319489</v>
+        <v>0.1109321156218144</v>
       </c>
       <c r="E14">
-        <v>0.1605206273618265</v>
+        <v>0.08199838551547245</v>
       </c>
       <c r="F14">
-        <v>5.158616058943522</v>
+        <v>1.181261009381828</v>
       </c>
       <c r="G14">
-        <v>0.0007394037686718455</v>
+        <v>0.9097515428941705</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1728482916785481</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.395615798477067</v>
+        <v>0.5384091107797531</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3084220367245649</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0882838388558369</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8886020880832035</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.6907482741185049</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.267105156619152</v>
+        <v>4.103156913598866</v>
       </c>
       <c r="C15">
-        <v>2.425375838597972</v>
+        <v>1.193386074050977</v>
       </c>
       <c r="D15">
-        <v>0.01917431563663285</v>
+        <v>0.1058081909665063</v>
       </c>
       <c r="E15">
-        <v>0.1586926402000941</v>
+        <v>0.07638768662750905</v>
       </c>
       <c r="F15">
-        <v>5.101124021258045</v>
+        <v>1.145632716141691</v>
       </c>
       <c r="G15">
-        <v>0.000740873137876421</v>
+        <v>0.882910696703604</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1847830792792706</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.390923813468433</v>
+        <v>0.5259806575348449</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3007248331381192</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08209304586156208</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8913428438489035</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.6993278139787975</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.672578270334043</v>
+        <v>3.844885184675036</v>
       </c>
       <c r="C16">
-        <v>2.247809972898551</v>
+        <v>1.118923509243814</v>
       </c>
       <c r="D16">
-        <v>0.01806324077521282</v>
+        <v>0.1013275936170999</v>
       </c>
       <c r="E16">
-        <v>0.1483850396856816</v>
+        <v>0.07392595167020666</v>
       </c>
       <c r="F16">
-        <v>4.779046514813331</v>
+        <v>1.09974724697085</v>
       </c>
       <c r="G16">
-        <v>0.0007492797563110319</v>
+        <v>0.8409186904077899</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1695511353665182</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3645485776312398</v>
+        <v>0.5107342718821002</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2961408764311599</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07977425037775099</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9084019465733491</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7029164668958217</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.315196670366845</v>
+        <v>3.738447292183139</v>
       </c>
       <c r="C17">
-        <v>2.141148642252233</v>
+        <v>1.101853081024558</v>
       </c>
       <c r="D17">
-        <v>0.01738680044188001</v>
+        <v>0.1080257096578237</v>
       </c>
       <c r="E17">
-        <v>0.1421994290741679</v>
+        <v>0.08413217082143198</v>
       </c>
       <c r="F17">
-        <v>4.587529475446928</v>
+        <v>1.131167930542134</v>
       </c>
       <c r="G17">
-        <v>0.0007544310669294923</v>
+        <v>0.8572655885545544</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1306162657035514</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3487883133612826</v>
+        <v>0.5224864832008649</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3083447403517567</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09205701018092682</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9199955151715926</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6889698303401843</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.112085791449374</v>
+        <v>3.749160835141652</v>
       </c>
       <c r="C18">
-        <v>2.08055383733722</v>
+        <v>1.132246700752376</v>
       </c>
       <c r="D18">
-        <v>0.01699942420409428</v>
+        <v>0.1265463334914685</v>
       </c>
       <c r="E18">
-        <v>0.1386878175586013</v>
+        <v>0.111433431825823</v>
       </c>
       <c r="F18">
-        <v>4.479410078608424</v>
+        <v>1.235032961644706</v>
       </c>
       <c r="G18">
-        <v>0.0007573941664244029</v>
+        <v>0.9267255797923042</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07773447379344844</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3398640133410566</v>
+        <v>0.5591951682642673</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.336930460759902</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1285228310458493</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9270493882648196</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.6606517662459197</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.043713590310915</v>
+        <v>3.853283284894587</v>
       </c>
       <c r="C19">
-        <v>2.060159882726452</v>
+        <v>1.199526264671647</v>
       </c>
       <c r="D19">
-        <v>0.01686853838004509</v>
+        <v>0.1555964321708956</v>
       </c>
       <c r="E19">
-        <v>0.1375063852005489</v>
+        <v>0.1583220406209982</v>
       </c>
       <c r="F19">
-        <v>4.443135269254867</v>
+        <v>1.394945292858466</v>
       </c>
       <c r="G19">
-        <v>0.0007583976651176454</v>
+        <v>1.036945702469197</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03361740246910472</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.336865322511656</v>
+        <v>0.6146228169471897</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3780159870007509</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1974722520950394</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9295013521559383</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6260902585683539</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.352982033328033</v>
+        <v>4.218915130475693</v>
       </c>
       <c r="C20">
-        <v>2.152423174327396</v>
+        <v>1.369517807487057</v>
       </c>
       <c r="D20">
-        <v>0.01745862896616046</v>
+        <v>0.2133115713250078</v>
       </c>
       <c r="E20">
-        <v>0.1428530223308186</v>
+        <v>0.2580564244712633</v>
       </c>
       <c r="F20">
-        <v>4.607701910729759</v>
+        <v>1.708626624294652</v>
       </c>
       <c r="G20">
-        <v>0.0007538827308952153</v>
+        <v>1.259272882329839</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01223306395141455</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3504511745193639</v>
+        <v>0.7213346548859647</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4530816437156773</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3537332130305373</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9187208326866596</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.5729136064744367</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.423091275879415</v>
+        <v>4.778634747795309</v>
       </c>
       <c r="C21">
-        <v>2.471991861094466</v>
+        <v>1.556305643492294</v>
       </c>
       <c r="D21">
-        <v>0.01946295360127692</v>
+        <v>0.2417862229063843</v>
       </c>
       <c r="E21">
-        <v>0.1614003458330657</v>
+        <v>0.2964922840626585</v>
       </c>
       <c r="F21">
-        <v>5.186323549365966</v>
+        <v>1.903276963557232</v>
       </c>
       <c r="G21">
-        <v>0.0007386988275071005</v>
+        <v>1.413037453473976</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01864647753081994</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3978753601530514</v>
+        <v>0.7870661404462851</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4890170402357157</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4093351028216574</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8873129362659</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5412341621755488</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.149992074007855</v>
+        <v>5.136588245096732</v>
       </c>
       <c r="C22">
-        <v>2.689388614500388</v>
+        <v>1.673341258687628</v>
       </c>
       <c r="D22">
-        <v>0.02079271925263626</v>
+        <v>0.2578464223102515</v>
       </c>
       <c r="E22">
-        <v>0.1740344654510295</v>
+        <v>0.3167460211205935</v>
       </c>
       <c r="F22">
-        <v>5.587024567989801</v>
+        <v>2.019802987206944</v>
       </c>
       <c r="G22">
-        <v>0.0007287233342676191</v>
+        <v>1.506882272886202</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02331888415813999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4304359576085517</v>
+        <v>0.8268220960395638</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5103430829104241</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4377127811954438</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8708832804545921</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5234419154884051</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.759201244565702</v>
+        <v>4.945317188518402</v>
       </c>
       <c r="C23">
-        <v>2.572479070958252</v>
+        <v>1.610796376261646</v>
       </c>
       <c r="D23">
-        <v>0.02008092137684159</v>
+        <v>0.2492640401363531</v>
       </c>
       <c r="E23">
-        <v>0.1672390321175072</v>
+        <v>0.3059184694443644</v>
       </c>
       <c r="F23">
-        <v>5.37086123578419</v>
+        <v>1.957354414925973</v>
       </c>
       <c r="G23">
-        <v>0.0007340551091337133</v>
+        <v>1.456549097704368</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0207663698297873</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4128973730240943</v>
+        <v>0.8054768180064968</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.498843726027296</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4225391711157158</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.879241061670939</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5328430409135692</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.335892002238836</v>
+        <v>4.22547143076622</v>
       </c>
       <c r="C24">
-        <v>2.147323715136906</v>
+        <v>1.375557682664805</v>
       </c>
       <c r="D24">
-        <v>0.01742615060874186</v>
+        <v>0.2169756777927319</v>
       </c>
       <c r="E24">
-        <v>0.142557395006758</v>
+        <v>0.2652688261514129</v>
       </c>
       <c r="F24">
-        <v>4.598575811307683</v>
+        <v>1.726181515404534</v>
       </c>
       <c r="G24">
-        <v>0.0007541306282390487</v>
+        <v>1.271049378175178</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01233056188539688</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3496989730955704</v>
+        <v>0.7272880481047821</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.457749734739032</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3656353318683898</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9192959131900409</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.5704675850062273</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.892003937811751</v>
+        <v>3.45654759422257</v>
       </c>
       <c r="C25">
-        <v>1.716885984632768</v>
+        <v>1.124519891285331</v>
       </c>
       <c r="D25">
-        <v>0.0146257897758062</v>
+        <v>0.1824889802276317</v>
       </c>
       <c r="E25">
-        <v>0.1176627808764223</v>
+        <v>0.2219951010947057</v>
       </c>
       <c r="F25">
-        <v>3.841769067480953</v>
+        <v>1.486485646639466</v>
       </c>
       <c r="G25">
-        <v>0.0007758129760184443</v>
+        <v>1.08021574061253</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005505609436603054</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2867890707976528</v>
+        <v>0.6478279544208334</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4179697911556204</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3051643627250229</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.977001744890714</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6149691471986216</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.894762035004021</v>
+        <v>2.746316060177548</v>
       </c>
       <c r="C2">
-        <v>0.9412458459671029</v>
+        <v>1.014312384133007</v>
       </c>
       <c r="D2">
-        <v>0.1572758643780929</v>
+        <v>0.1672572212701482</v>
       </c>
       <c r="E2">
-        <v>0.1904444052167733</v>
+        <v>0.1924512137366463</v>
       </c>
       <c r="F2">
-        <v>1.31667404419639</v>
+        <v>1.227756448629762</v>
       </c>
       <c r="G2">
-        <v>0.9460894359006318</v>
+        <v>0.83465950094687</v>
       </c>
       <c r="H2">
-        <v>0.002109841026467274</v>
+        <v>0.001782135442685906</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5927871257293447</v>
+        <v>0.596518494821126</v>
       </c>
       <c r="K2">
-        <v>0.391940943549173</v>
+        <v>0.340106504127391</v>
       </c>
       <c r="L2">
-        <v>0.2611416056934743</v>
+        <v>0.1884859431754968</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08460113722968288</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2567547279827238</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6507508891157023</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6782487133624642</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.515813969688622</v>
+        <v>2.396507642728295</v>
       </c>
       <c r="C3">
-        <v>0.8176750382717728</v>
+        <v>0.8775892636988942</v>
       </c>
       <c r="D3">
-        <v>0.1402492638925708</v>
+        <v>0.1489526235888263</v>
       </c>
       <c r="E3">
-        <v>0.1691744011633993</v>
+        <v>0.1712781475809706</v>
       </c>
       <c r="F3">
-        <v>1.205017268497301</v>
+        <v>1.130303605032992</v>
       </c>
       <c r="G3">
-        <v>0.8584606956909937</v>
+        <v>0.761879604634828</v>
       </c>
       <c r="H3">
-        <v>0.0006764606923987948</v>
+        <v>0.0005694051550091395</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5573173319150015</v>
+        <v>0.5639988565044547</v>
       </c>
       <c r="K3">
-        <v>0.3760411822142515</v>
+        <v>0.330744391274564</v>
       </c>
       <c r="L3">
-        <v>0.2314929901695564</v>
+        <v>0.1911574461287309</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07505841708016092</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2283971319617208</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6767220817802198</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.6943204663128668</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.283734442641901</v>
+        <v>2.181612184748474</v>
       </c>
       <c r="C4">
-        <v>0.7420145146195978</v>
+        <v>0.7939961375636528</v>
       </c>
       <c r="D4">
-        <v>0.1298093792499202</v>
+        <v>0.137746383465597</v>
       </c>
       <c r="E4">
-        <v>0.1561450071941657</v>
+        <v>0.1582996983014269</v>
       </c>
       <c r="F4">
-        <v>1.13792588172069</v>
+        <v>1.071504042038327</v>
       </c>
       <c r="G4">
-        <v>0.8060533162353778</v>
+        <v>0.7183820617545678</v>
       </c>
       <c r="H4">
-        <v>0.0001790077066705642</v>
+        <v>0.0001491694256749998</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.536342375637247</v>
+        <v>0.5443392191075418</v>
       </c>
       <c r="K4">
-        <v>0.367047523847372</v>
+        <v>0.3255016551234391</v>
       </c>
       <c r="L4">
-        <v>0.2133418198498305</v>
+        <v>0.1928555087078188</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07005389077174584</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2110064919334036</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6934692006976881</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7049999211608267</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.18927255865799</v>
+        <v>2.093987967440967</v>
       </c>
       <c r="C5">
-        <v>0.7112221372551915</v>
+        <v>0.760007645349134</v>
       </c>
       <c r="D5">
-        <v>0.1255566200158569</v>
+        <v>0.1331862862778763</v>
       </c>
       <c r="E5">
-        <v>0.1508396814564215</v>
+        <v>0.1530136283114487</v>
       </c>
       <c r="F5">
-        <v>1.110923458987415</v>
+        <v>1.047779763720371</v>
       </c>
       <c r="G5">
-        <v>0.785018304747453</v>
+        <v>0.7009289793227111</v>
       </c>
       <c r="H5">
-        <v>6.610950085716993E-05</v>
+        <v>5.430309175302739E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5279831542815714</v>
+        <v>0.536398306663628</v>
       </c>
       <c r="K5">
-        <v>0.3635633790515413</v>
+        <v>0.3234837934317518</v>
       </c>
       <c r="L5">
-        <v>0.2059531448931367</v>
+        <v>0.1935614069532612</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06822278030540829</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2039207423674512</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7004882883498915</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7095502957921127</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.173592972757206</v>
+        <v>2.079434170954983</v>
       </c>
       <c r="C6">
-        <v>0.7061111171559844</v>
+        <v>0.754368131051109</v>
       </c>
       <c r="D6">
-        <v>0.1248504896618954</v>
+        <v>0.1324294318286832</v>
       </c>
       <c r="E6">
-        <v>0.1499588972041366</v>
+        <v>0.1521359688106614</v>
       </c>
       <c r="F6">
-        <v>1.106459262725636</v>
+        <v>1.043854009880818</v>
       </c>
       <c r="G6">
-        <v>0.7815440275091703</v>
+        <v>0.6980466144662074</v>
       </c>
       <c r="H6">
-        <v>5.260630677317302E-05</v>
+        <v>4.301661405525792E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5266060910716135</v>
+        <v>0.5350837931695622</v>
       </c>
       <c r="K6">
-        <v>0.3629954091421794</v>
+        <v>0.3231556495011212</v>
       </c>
       <c r="L6">
-        <v>0.2047265988291116</v>
+        <v>0.1936794448968513</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06793111718693723</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2027441047366167</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.701665357631871</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.710317708115241</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.282460089362132</v>
+        <v>2.178302123367757</v>
       </c>
       <c r="C7">
-        <v>0.7415990935564309</v>
+        <v>0.7919006494824998</v>
       </c>
       <c r="D7">
-        <v>0.1297520213112051</v>
+        <v>0.1379412938303659</v>
       </c>
       <c r="E7">
-        <v>0.1560734448459939</v>
+        <v>0.1582916767116203</v>
       </c>
       <c r="F7">
-        <v>1.13756038918693</v>
+        <v>1.069076267128921</v>
       </c>
       <c r="G7">
-        <v>0.8057683675953342</v>
+        <v>0.7221639087491667</v>
       </c>
       <c r="H7">
-        <v>0.0001771296874559791</v>
+        <v>0.0001462250609516325</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5362288958046548</v>
+        <v>0.536763508680508</v>
       </c>
       <c r="K7">
-        <v>0.3669998192546373</v>
+        <v>0.3247540887325648</v>
       </c>
       <c r="L7">
-        <v>0.2132421477162438</v>
+        <v>0.1925315596720054</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06981378353068024</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2108260742075174</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6935630837802833</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7054945476840047</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.763953608540248</v>
+        <v>2.618565402121988</v>
       </c>
       <c r="C8">
-        <v>0.8985860972805995</v>
+        <v>0.961572728284068</v>
       </c>
       <c r="D8">
-        <v>0.1514007898004905</v>
+        <v>0.1618030770348184</v>
       </c>
       <c r="E8">
-        <v>0.1831020715452354</v>
+        <v>0.1853590082764569</v>
       </c>
       <c r="F8">
-        <v>1.277851325247056</v>
+        <v>1.186910846389281</v>
       </c>
       <c r="G8">
-        <v>0.9155665820791654</v>
+        <v>0.8227630433135715</v>
       </c>
       <c r="H8">
-        <v>0.001532241306845261</v>
+        <v>0.001280907271660414</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.580381768962738</v>
+        <v>0.560610655895303</v>
       </c>
       <c r="K8">
-        <v>0.3862914000443851</v>
+        <v>0.3343960975261417</v>
       </c>
       <c r="L8">
-        <v>0.250904436909039</v>
+        <v>0.1883744245854189</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08034277620988206</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2466874289719456</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6595353288683228</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.6851791136261127</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.714748258591271</v>
+        <v>3.489969640961476</v>
       </c>
       <c r="C9">
-        <v>1.208791350851754</v>
+        <v>1.303688838541291</v>
       </c>
       <c r="D9">
-        <v>0.1940707965683259</v>
+        <v>0.2080080728767513</v>
       </c>
       <c r="E9">
-        <v>0.2365119930324582</v>
+        <v>0.2385137534515209</v>
       </c>
       <c r="F9">
-        <v>1.566086907502864</v>
+        <v>1.434989427124975</v>
       </c>
       <c r="G9">
-        <v>1.143406564754542</v>
+        <v>1.016077536778738</v>
       </c>
       <c r="H9">
-        <v>0.007530690363937664</v>
+        <v>0.006327222766157159</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6740095377969055</v>
+        <v>0.6368409869767362</v>
       </c>
       <c r="K9">
-        <v>0.4308219000477536</v>
+        <v>0.360333602033144</v>
       </c>
       <c r="L9">
-        <v>0.3254383589698193</v>
+        <v>0.1819270017597496</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1088604199985461</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3176866662103492</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5994878346803532</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6504705062768465</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.400251193758891</v>
+        <v>4.102412586194021</v>
       </c>
       <c r="C10">
-        <v>1.427633240738771</v>
+        <v>1.535011093803178</v>
       </c>
       <c r="D10">
-        <v>0.2204820411002828</v>
+        <v>0.2382259764727905</v>
       </c>
       <c r="E10">
-        <v>0.2663310802262444</v>
+        <v>0.2683056591305402</v>
       </c>
       <c r="F10">
-        <v>1.761860138207453</v>
+        <v>1.588761526737883</v>
       </c>
       <c r="G10">
-        <v>1.30252688441297</v>
+        <v>1.175068482910888</v>
       </c>
       <c r="H10">
-        <v>0.01419205291085701</v>
+        <v>0.01187313999716011</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7392116167749236</v>
+        <v>0.6452184744168221</v>
       </c>
       <c r="K10">
-        <v>0.4618817281349195</v>
+        <v>0.373465407338891</v>
       </c>
       <c r="L10">
-        <v>0.3647948003372647</v>
+        <v>0.1742374253777648</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.13083585035276</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3539511421903114</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5637400793884879</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6371667925715343</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.539218755057334</v>
+        <v>4.21101466708609</v>
       </c>
       <c r="C11">
-        <v>1.42758313527986</v>
+        <v>1.510617675922617</v>
       </c>
       <c r="D11">
-        <v>0.1892454743116758</v>
+        <v>0.2074337118885694</v>
       </c>
       <c r="E11">
-        <v>0.2013170670799767</v>
+        <v>0.2027007043561184</v>
       </c>
       <c r="F11">
-        <v>1.629088812394144</v>
+        <v>1.440789028928165</v>
       </c>
       <c r="G11">
-        <v>1.222261733911807</v>
+        <v>1.154231665312636</v>
       </c>
       <c r="H11">
-        <v>0.03293923641453489</v>
+        <v>0.03036051023163822</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6937998261420546</v>
+        <v>0.523394550660214</v>
       </c>
       <c r="K11">
-        <v>0.4207014015582047</v>
+        <v>0.3305987499258976</v>
       </c>
       <c r="L11">
-        <v>0.2574170275844665</v>
+        <v>0.1537378635066204</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1208057580638524</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2468686457637901</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5863057299588093</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6823558594777808</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.508412507538708</v>
+        <v>4.178794520262102</v>
       </c>
       <c r="C12">
-        <v>1.380807792546875</v>
+        <v>1.447324021392717</v>
       </c>
       <c r="D12">
-        <v>0.1600010710802451</v>
+        <v>0.1765767908126747</v>
       </c>
       <c r="E12">
-        <v>0.1501532843677147</v>
+        <v>0.1506970116638584</v>
       </c>
       <c r="F12">
-        <v>1.479280411114047</v>
+        <v>1.295884679098776</v>
       </c>
       <c r="G12">
-        <v>1.122407780956138</v>
+        <v>1.087272663234472</v>
       </c>
       <c r="H12">
-        <v>0.07079766209544402</v>
+        <v>0.06825843652659103</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6421631500906528</v>
+        <v>0.4501258924957199</v>
       </c>
       <c r="K12">
-        <v>0.3803315855143765</v>
+        <v>0.2955232012410107</v>
       </c>
       <c r="L12">
-        <v>0.1790940419313714</v>
+        <v>0.1398321078541542</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1087266792722446</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1698115681660468</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.618517353607615</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7270246174138322</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.345503374806526</v>
+        <v>4.042189546940619</v>
       </c>
       <c r="C13">
-        <v>1.295859592582815</v>
+        <v>1.354761357748941</v>
       </c>
       <c r="D13">
-        <v>0.1307913269942489</v>
+        <v>0.14390846858511</v>
       </c>
       <c r="E13">
-        <v>0.106979882708707</v>
+        <v>0.1065000545292527</v>
       </c>
       <c r="F13">
-        <v>1.308427906679668</v>
+        <v>1.148611062214343</v>
       </c>
       <c r="G13">
-        <v>1.002018774609397</v>
+        <v>0.9724617350698139</v>
       </c>
       <c r="H13">
-        <v>0.1249115953469584</v>
+        <v>0.1226561563661051</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5828359158710157</v>
+        <v>0.4161461903061934</v>
       </c>
       <c r="K13">
-        <v>0.3382069220437671</v>
+        <v>0.2651647839727254</v>
       </c>
       <c r="L13">
-        <v>0.1189903144887978</v>
+        <v>0.1298688658985654</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09512634842548451</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1116434450359343</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6587524536804068</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7690831055466418</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.17267382675675</v>
+        <v>3.89950891799981</v>
       </c>
       <c r="C14">
-        <v>1.21980447068313</v>
+        <v>1.276909066476321</v>
       </c>
       <c r="D14">
-        <v>0.1109321156218144</v>
+        <v>0.1210988266366613</v>
       </c>
       <c r="E14">
-        <v>0.08199838551547245</v>
+        <v>0.08083489386174492</v>
       </c>
       <c r="F14">
-        <v>1.181261009381828</v>
+        <v>1.044801628802546</v>
       </c>
       <c r="G14">
-        <v>0.9097515428941705</v>
+        <v>0.8736465447975945</v>
       </c>
       <c r="H14">
-        <v>0.1728482916785481</v>
+        <v>0.1708766168600278</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5384091107797531</v>
+        <v>0.406958853512279</v>
       </c>
       <c r="K14">
-        <v>0.3084220367245649</v>
+        <v>0.2459210340592151</v>
       </c>
       <c r="L14">
-        <v>0.0882838388558369</v>
+        <v>0.1244245171554752</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08509919369878816</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0824171506328959</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6907482741185049</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7968851391217271</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.103156913598866</v>
+        <v>3.842515733659809</v>
       </c>
       <c r="C15">
-        <v>1.193386074050977</v>
+        <v>1.251429599121195</v>
       </c>
       <c r="D15">
-        <v>0.1058081909665063</v>
+        <v>0.1150228912801481</v>
       </c>
       <c r="E15">
-        <v>0.07638768662750905</v>
+        <v>0.07507680373560177</v>
       </c>
       <c r="F15">
-        <v>1.145632716141691</v>
+        <v>1.017898338966617</v>
       </c>
       <c r="G15">
-        <v>0.882910696703604</v>
+        <v>0.8411047272857815</v>
       </c>
       <c r="H15">
-        <v>0.1847830792792706</v>
+        <v>0.1829305374585317</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5259806575348449</v>
+        <v>0.4106757288285792</v>
       </c>
       <c r="K15">
-        <v>0.3007248331381192</v>
+        <v>0.241845301356328</v>
       </c>
       <c r="L15">
-        <v>0.08209304586156208</v>
+        <v>0.1236882567751927</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08229530780425875</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07666768526846823</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6993278139787975</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8021523118807465</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.844885184675036</v>
+        <v>3.629386292377148</v>
       </c>
       <c r="C16">
-        <v>1.118923509243814</v>
+        <v>1.187521683799503</v>
       </c>
       <c r="D16">
-        <v>0.1013275936170999</v>
+        <v>0.1083677948467212</v>
       </c>
       <c r="E16">
-        <v>0.07392595167020666</v>
+        <v>0.07272505168039345</v>
       </c>
       <c r="F16">
-        <v>1.09974724697085</v>
+        <v>0.9990057982817149</v>
       </c>
       <c r="G16">
-        <v>0.8409186904077899</v>
+        <v>0.7659286063586848</v>
       </c>
       <c r="H16">
-        <v>0.1695511353665182</v>
+        <v>0.1681846958026512</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5107342718821002</v>
+        <v>0.4622391081682338</v>
       </c>
       <c r="K16">
-        <v>0.2961408764311599</v>
+        <v>0.2468061120558431</v>
       </c>
       <c r="L16">
-        <v>0.07977425037775099</v>
+        <v>0.1292294040737296</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07835017111303699</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07528061438474509</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7029164668958217</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7869076049570793</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.738447292183139</v>
+        <v>3.538284763287663</v>
       </c>
       <c r="C17">
-        <v>1.101853081024558</v>
+        <v>1.177277304365361</v>
       </c>
       <c r="D17">
-        <v>0.1080257096578237</v>
+        <v>0.1149606634037355</v>
       </c>
       <c r="E17">
-        <v>0.08413217082143198</v>
+        <v>0.0832930298123209</v>
       </c>
       <c r="F17">
-        <v>1.131167930542134</v>
+        <v>1.037279455825939</v>
       </c>
       <c r="G17">
-        <v>0.8572655885545544</v>
+        <v>0.7646901755395419</v>
       </c>
       <c r="H17">
-        <v>0.1306162657035514</v>
+        <v>0.129456487274723</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5224864832008649</v>
+        <v>0.5014685920522908</v>
       </c>
       <c r="K17">
-        <v>0.3083447403517567</v>
+        <v>0.2603599292539336</v>
       </c>
       <c r="L17">
-        <v>0.09205701018092682</v>
+        <v>0.1365271554570917</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08022630620241245</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08761047382607146</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6889698303401843</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7630419692715549</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.749160835141652</v>
+        <v>3.545884310181293</v>
       </c>
       <c r="C18">
-        <v>1.132246700752376</v>
+        <v>1.215849778341408</v>
       </c>
       <c r="D18">
-        <v>0.1265463334914685</v>
+        <v>0.1347335512738113</v>
       </c>
       <c r="E18">
-        <v>0.111433431825823</v>
+        <v>0.1111655047295912</v>
       </c>
       <c r="F18">
-        <v>1.235032961644706</v>
+        <v>1.135495562785408</v>
       </c>
       <c r="G18">
-        <v>0.9267255797923042</v>
+        <v>0.8187192466584605</v>
       </c>
       <c r="H18">
-        <v>0.07773447379344844</v>
+        <v>0.07659959807421757</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5591951682642673</v>
+        <v>0.5464793207325442</v>
       </c>
       <c r="K18">
-        <v>0.336930460759902</v>
+        <v>0.284648605434132</v>
       </c>
       <c r="L18">
-        <v>0.1285228310458493</v>
+        <v>0.1469294355845143</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08779648649009886</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1234240899833594</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6606517662459197</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7289220525463378</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.853283284894587</v>
+        <v>3.634173665772892</v>
       </c>
       <c r="C19">
-        <v>1.199526264671647</v>
+        <v>1.293429014889625</v>
       </c>
       <c r="D19">
-        <v>0.1555964321708956</v>
+        <v>0.1660307800675298</v>
       </c>
       <c r="E19">
-        <v>0.1583220406209982</v>
+        <v>0.1587856131708385</v>
       </c>
       <c r="F19">
-        <v>1.394945292858466</v>
+        <v>1.280988072195797</v>
       </c>
       <c r="G19">
-        <v>1.036945702469197</v>
+        <v>0.9126407581748026</v>
       </c>
       <c r="H19">
-        <v>0.03361740246910472</v>
+        <v>0.0323402458326143</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6146228169471897</v>
+        <v>0.5988907780021151</v>
       </c>
       <c r="K19">
-        <v>0.3780159870007509</v>
+        <v>0.3173381047636639</v>
       </c>
       <c r="L19">
-        <v>0.1974722520950394</v>
+        <v>0.1595923736285094</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.100011976742703</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1910997453467047</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6260902585683539</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.690706884785186</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.218915130475693</v>
+        <v>3.948696889848577</v>
       </c>
       <c r="C20">
-        <v>1.369517807487057</v>
+        <v>1.479698208560762</v>
       </c>
       <c r="D20">
-        <v>0.2133115713250078</v>
+        <v>0.2290750274195261</v>
       </c>
       <c r="E20">
-        <v>0.2580564244712633</v>
+        <v>0.2598044185303863</v>
       </c>
       <c r="F20">
-        <v>1.708626624294652</v>
+        <v>1.554491886097367</v>
       </c>
       <c r="G20">
-        <v>1.259272882329839</v>
+        <v>1.117114088556207</v>
       </c>
       <c r="H20">
-        <v>0.01223306395141455</v>
+        <v>0.01027492511068928</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7213346548859647</v>
+        <v>0.668410131055623</v>
       </c>
       <c r="K20">
-        <v>0.4530816437156773</v>
+        <v>0.3720702237943527</v>
       </c>
       <c r="L20">
-        <v>0.3537332130305373</v>
+        <v>0.1770242939019653</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1256851648117099</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3440352204371777</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5729136064744367</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6384527351282685</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.778634747795309</v>
+        <v>4.403439254159082</v>
       </c>
       <c r="C21">
-        <v>1.556305643492294</v>
+        <v>1.645643250766568</v>
       </c>
       <c r="D21">
-        <v>0.2417862229063843</v>
+        <v>0.2664145695812152</v>
       </c>
       <c r="E21">
-        <v>0.2964922840626585</v>
+        <v>0.2996846785138771</v>
       </c>
       <c r="F21">
-        <v>1.903276963557232</v>
+        <v>1.670825422195264</v>
       </c>
       <c r="G21">
-        <v>1.413037453473976</v>
+        <v>1.348429517299849</v>
       </c>
       <c r="H21">
-        <v>0.01864647753081994</v>
+        <v>0.01538406919231505</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7870661404462851</v>
+        <v>0.5577041228595476</v>
       </c>
       <c r="K21">
-        <v>0.4890170402357157</v>
+        <v>0.3779105937510465</v>
       </c>
       <c r="L21">
-        <v>0.4093351028216574</v>
+        <v>0.1695241533647298</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1418207235747246</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3950763281067964</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5412341621755488</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6339436507534586</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.136588245096732</v>
+        <v>4.688771114103019</v>
       </c>
       <c r="C22">
-        <v>1.673341258687628</v>
+        <v>1.74507740080486</v>
       </c>
       <c r="D22">
-        <v>0.2578464223102515</v>
+        <v>0.2887135966917924</v>
       </c>
       <c r="E22">
-        <v>0.3167460211205935</v>
+        <v>0.3209602423437303</v>
       </c>
       <c r="F22">
-        <v>2.019802987206944</v>
+        <v>1.733011098362638</v>
       </c>
       <c r="G22">
-        <v>1.506882272886202</v>
+        <v>1.504475655441581</v>
       </c>
       <c r="H22">
-        <v>0.02331888415813999</v>
+        <v>0.01907576182217352</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8268220960395638</v>
+        <v>0.4820066529443778</v>
       </c>
       <c r="K22">
-        <v>0.5103430829104241</v>
+        <v>0.3788128951489895</v>
       </c>
       <c r="L22">
-        <v>0.4377127811954438</v>
+        <v>0.1636538054999406</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1515915417800358</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4203841315492838</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5234419154884051</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6359169602843906</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.945317188518402</v>
+        <v>4.542416286382377</v>
       </c>
       <c r="C23">
-        <v>1.610796376261646</v>
+        <v>1.696583894841524</v>
       </c>
       <c r="D23">
-        <v>0.2492640401363531</v>
+        <v>0.2760224648898486</v>
       </c>
       <c r="E23">
-        <v>0.3059184694443644</v>
+        <v>0.3093925587700355</v>
       </c>
       <c r="F23">
-        <v>1.957354414925973</v>
+        <v>1.705378392601233</v>
       </c>
       <c r="G23">
-        <v>1.456549097704368</v>
+        <v>1.408749037854051</v>
       </c>
       <c r="H23">
-        <v>0.0207663698297873</v>
+        <v>0.01708759729507825</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8054768180064968</v>
+        <v>0.5377567220812978</v>
       </c>
       <c r="K23">
-        <v>0.498843726027296</v>
+        <v>0.380113457309065</v>
       </c>
       <c r="L23">
-        <v>0.4225391711157158</v>
+        <v>0.167385476767091</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1470912143463963</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4070858923164309</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5328430409135692</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6331008867418078</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.22547143076622</v>
+        <v>3.954190923145063</v>
       </c>
       <c r="C24">
-        <v>1.375557682664805</v>
+        <v>1.486979806054876</v>
       </c>
       <c r="D24">
-        <v>0.2169756777927319</v>
+        <v>0.2329714253982189</v>
       </c>
       <c r="E24">
-        <v>0.2652688261514129</v>
+        <v>0.2671003361080651</v>
       </c>
       <c r="F24">
-        <v>1.726181515404534</v>
+        <v>1.570769772670801</v>
       </c>
       <c r="G24">
-        <v>1.271049378175178</v>
+        <v>1.126585814419201</v>
       </c>
       <c r="H24">
-        <v>0.01233056188539688</v>
+        <v>0.01035092685974364</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7272880481047821</v>
+        <v>0.67503232851044</v>
       </c>
       <c r="K24">
-        <v>0.457749734739032</v>
+        <v>0.375908308941824</v>
       </c>
       <c r="L24">
-        <v>0.3656353318683898</v>
+        <v>0.1785838362749708</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1270234276217046</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3557835825010898</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5704675850062273</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6351876033214907</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.45654759422257</v>
+        <v>3.257118630970183</v>
       </c>
       <c r="C25">
-        <v>1.124519891285331</v>
+        <v>1.213079114350762</v>
       </c>
       <c r="D25">
-        <v>0.1824889802276317</v>
+        <v>0.1950805649361911</v>
       </c>
       <c r="E25">
-        <v>0.2219951010947057</v>
+        <v>0.2239873136471928</v>
       </c>
       <c r="F25">
-        <v>1.486485646639466</v>
+        <v>1.369730845110553</v>
       </c>
       <c r="G25">
-        <v>1.08021574061253</v>
+        <v>0.9566091470089759</v>
       </c>
       <c r="H25">
-        <v>0.005505609436603054</v>
+        <v>0.00463432225439131</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6478279544208334</v>
+        <v>0.6263909292378003</v>
       </c>
       <c r="K25">
-        <v>0.4179697911556204</v>
+        <v>0.3537954270917467</v>
       </c>
       <c r="L25">
-        <v>0.3051643627250229</v>
+        <v>0.1840123215762048</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1007117390802534</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2985323530156876</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6149691471986216</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6583766702440101</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
